--- a/Excel-To-Do-List-Template-Drop-Down-List.xlsx
+++ b/Excel-To-Do-List-Template-Drop-Down-List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\To Do List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rabias/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824D99E1-1E43-4956-B7FD-2AAEAB1A34BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E03ACBD-D700-3B44-A7B8-2FC8048A24E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To Do List Drop Down" sheetId="2" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>TO DO LIST</t>
-  </si>
-  <si>
-    <t>Activities / Tasks / Items</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Status inputs</t>
   </si>
@@ -89,25 +77,43 @@
     <t>Completed Score</t>
   </si>
   <si>
-    <t>22-03-22</t>
-  </si>
-  <si>
-    <t>Collect Jet (Petrol) Fuel Buyer List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-03-22 </t>
-  </si>
-  <si>
     <t>Send Mail client techplusmedia.com</t>
-  </si>
-  <si>
-    <t>23-03-22</t>
   </si>
   <si>
     <t>Add course jyotish website</t>
   </si>
   <si>
     <t>Collage Project</t>
+  </si>
+  <si>
+    <t>TO-DO-LIST</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>ACTIVITIES-TASKS-ITEMS</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>COMPLATED</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>Collect Jet (Petrol) Fuel Buyer Lıst</t>
   </si>
 </sst>
 </file>
@@ -117,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -166,19 +172,108 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Baghdad Regular"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -188,18 +283,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFD9BDEE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -219,43 +314,6 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -286,45 +344,186 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color theme="0" tint="-0.499984740745262"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -332,16 +531,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
@@ -351,40 +598,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -397,8 +625,32 @@
         <strike/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD9BDEE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -413,7 +665,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="tr-TR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -437,83 +689,6 @@
           <c:h val="1"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                  <a:alpha val="70000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-034A-4229-B493-9E6963575E57}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>Total</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-034A-4229-B493-9E6963575E57}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="72"/>
-        <c:overlap val="100"/>
-        <c:axId val="329548960"/>
-        <c:axId val="329555624"/>
-      </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -546,7 +721,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.7857142857142857</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,8 +742,8 @@
         </c:dLbls>
         <c:gapWidth val="72"/>
         <c:overlap val="100"/>
-        <c:axId val="329556016"/>
-        <c:axId val="329555232"/>
+        <c:axId val="329548960"/>
+        <c:axId val="329555624"/>
       </c:barChart>
       <c:catAx>
         <c:axId val="329548960"/>
@@ -596,7 +771,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -604,41 +779,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="329555232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329556016"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="329556016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329555232"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -650,7 +794,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -664,7 +810,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1224,16 +1370,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>411408</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:colOff>1115543</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>246697</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1260,16 +1406,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>290512</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1219201</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="$H$12">
       <xdr:nvSpPr>
@@ -1284,8 +1430,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5095874" y="357187"/>
-          <a:ext cx="676276" cy="209550"/>
+          <a:off x="14046201" y="2057400"/>
+          <a:ext cx="1701800" cy="546100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1314,31 +1460,1070 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{38E5F9B6-F467-45D6-BB80-245A13DA7B19}" type="TxLink">
-            <a:rPr lang="en-US" sz="800" b="1" i="1" u="none" strike="noStrike">
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" b="1" i="1">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Verdana"/>
-              <a:ea typeface="Verdana"/>
-              <a:cs typeface="Verdana"/>
             </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>78.6%</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-GB" sz="800" b="1" i="1">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:t>64,3%</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>631580</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>49140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>631940</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>49500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="Mürekkep 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{918EC8E0-2656-316B-78F3-229608C6D823}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1711080" y="5421240"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Mürekkep 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{918EC8E0-2656-316B-78F3-229608C6D823}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1702440" y="5412240"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>151520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158360</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="49" name="Mürekkep 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E000505-5838-A3E5-1084-DA117B1FB8D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7229520" y="3631320"/>
+            <a:ext cx="969120" cy="6840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="49" name="Mürekkep 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E000505-5838-A3E5-1084-DA117B1FB8D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7139520" y="3451680"/>
+              <a:ext cx="1148760" cy="366480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>201220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>437920</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>240100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="51" name="Mürekkep 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA36FF1-3456-5C48-5A12-D56D79FFDE30}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7258680" y="4455720"/>
+            <a:ext cx="977040" cy="38880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="51" name="Mürekkep 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA36FF1-3456-5C48-5A12-D56D79FFDE30}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7169040" y="4276080"/>
+              <a:ext cx="1156680" cy="398520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>126780</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>170380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>486520</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228340</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="55" name="Mürekkep 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2D9DD2-8EEF-395A-1252-4C2BCA0D3B7B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7251480" y="5186880"/>
+            <a:ext cx="1032840" cy="57960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="55" name="Mürekkep 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2D9DD2-8EEF-395A-1252-4C2BCA0D3B7B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7161480" y="5006880"/>
+              <a:ext cx="1212480" cy="417600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>21480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1118700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>205160</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="59" name="Mürekkep 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8037A4DD-3D0F-D923-13A6-44BDC5BFDE37}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8632080" y="3651480"/>
+            <a:ext cx="3116520" cy="33480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="59" name="Mürekkep 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8037A4DD-3D0F-D923-13A6-44BDC5BFDE37}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8625956" y="3645360"/>
+              <a:ext cx="3128768" cy="45720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>164560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1220940</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>204880</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="60" name="Mürekkep 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF86E3EE-0DEA-6FCD-428A-1B9477A995F8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8562960" y="4457160"/>
+            <a:ext cx="3287880" cy="40320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="60" name="Mürekkep 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF86E3EE-0DEA-6FCD-428A-1B9477A995F8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8556827" y="4451040"/>
+              <a:ext cx="3300147" cy="52560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>49940</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>134440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>729540</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>168640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="61" name="Mürekkep 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D641A5-6A70-9DC0-C307-0D9A5451AF90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8520840" y="5189040"/>
+            <a:ext cx="2838600" cy="34200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="61" name="Mürekkep 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D641A5-6A70-9DC0-C307-0D9A5451AF90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8514704" y="5182920"/>
+              <a:ext cx="2850871" cy="46440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>175595</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>2687</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>182428</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="66" name="Mürekkep 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC1AE58-FA5D-92E4-2F20-51FD0AACF46B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="14449680" y="4475880"/>
+            <a:ext cx="1201680" cy="35280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="66" name="Mürekkep 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC1AE58-FA5D-92E4-2F20-51FD0AACF46B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14360040" y="4295880"/>
+              <a:ext cx="1381320" cy="394920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190355</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>189545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1032</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>215465</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="67" name="Mürekkep 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF442AD-CC9E-C72E-2519-871B7818E031}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="14464440" y="5305320"/>
+            <a:ext cx="1188000" cy="25920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="67" name="Mürekkep 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF442AD-CC9E-C72E-2519-871B7818E031}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14374440" y="5125320"/>
+              <a:ext cx="1367640" cy="385560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>213035</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>155961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1352075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>172881</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="68" name="Mürekkep 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A38BF0-8918-13CA-3A65-73FC60F7E8A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="14487120" y="6112440"/>
+            <a:ext cx="1139040" cy="16920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="68" name="Mürekkep 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A38BF0-8918-13CA-3A65-73FC60F7E8A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14397120" y="5932440"/>
+              <a:ext cx="1318680" cy="376560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>66155</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>218757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>119832</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>241437</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="69" name="Mürekkep 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100C731C-5FD7-F0AC-55FD-2D0B0DCE2C86}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="14340240" y="3742560"/>
+            <a:ext cx="1431000" cy="22680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="69" name="Mürekkep 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100C731C-5FD7-F0AC-55FD-2D0B0DCE2C86}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14250600" y="3562920"/>
+              <a:ext cx="1610640" cy="382320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-10T22:28:30.526"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC912C"/>
+      <inkml:brushProperty name="inkEffects" value="gold"/>
+      <inkml:brushProperty name="anchorX" value="-323388.25"/>
+      <inkml:brushProperty name="anchorY" value="-46592.84766"/>
+      <inkml:brushProperty name="scaleFactor" value="0.5"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">235 548 24575,'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-10T23:24:13.004"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.5" units="cm"/>
+      <inkml:brushProperty name="height" value="1" units="cm"/>
+      <inkml:brushProperty name="color" value="#51BED9"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 46,'62'-13,"-11"3,-40 10,11 0,7-5,-4 4,6-4,-8 5,1 0,18 0,-21 0,14 0,-12 0,1 0,13 0,-3 0,26 0,-22 0,11 0,-17 0,-7 0,32 0,-28 0,29 0,-33 0,16 0,-16 0,16 0,-16 0,2 0,3 0,-10 0,12-5,0 3,-7-3,7 5,0 0,-7 0,6 0,-3 0,-4 0,4 0,-1 0,-3 0,4 0,5 0,1 0,-4 0,-4 0,0 0,-6 0,22 0,-8 0,9 0,-13 0,0 0,-3 0,-2 0,7 0,-10 0,11 0,-13 0,11 0,-3 0,-3 0,8 0,-10 0,-1 0,6 0,-4 0,3 0,1 0,-4 0,4 0,4 0,2 0,9 0,-9 0,7 0,-7 0,0 0,24 0,-29 0,20 0,-27 0,1 0,10 5,-8-4,3 4,-2-5,-7 0,14 0,-9 0,8 0,-8 0,23 0,-10 0,16 0,-19 0,-7 0,-11 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-10T23:24:18.824"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.5" units="cm"/>
+      <inkml:brushProperty name="height" value="1" units="cm"/>
+      <inkml:brushProperty name="color" value="#A9D8FF"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 12,'67'-6,"-10"1,-41 5,-3 0,28 0,-18 0,20 0,-21 0,15 0,-10 0,9 0,-13 0,0 0,25 0,-19 0,20 0,-26 0,-1 0,11 5,-8-4,8 4,-10-5,0 5,4-4,11 4,-11-5,8 0,-8 0,-7 0,21 0,-21 0,7 0,4 7,-11-6,17 6,-14-7,5 0,0 5,-4-4,3 4,1-5,5 0,-8 0,5 0,-3 0,-2 0,21 0,-25 0,24 0,-25 0,21 0,-7 0,0 0,24 0,-20 0,22 0,-17 0,1 0,15 0,6 0,-1 0,12 0,-9 0,14 0,3 0,-20 0,-4 0,-17 0,-9 0,7 6,-7-4,9 4,-8-6,-4 0,-3 0,-4 0,4 0,44 0,-27 0,39 0,-7 0,7 0,-33 0,0 0,30 0,-5 0,5 0,-13 0,9 0,-34 0,0 0,-8 0,7 0,-17 0,17 0,-22 0,10 0,-12 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-10T22:58:56.923"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.5" units="cm"/>
+      <inkml:brushProperty name="height" value="1" units="cm"/>
+      <inkml:brushProperty name="color" value="#A2D762"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'62'0,"-12"0,-42 0,15 0,6 0,-2 0,6 0,-16 0,10 0,8 0,-2 0,5 0,-13 0,15 0,-12 0,14 0,-18 0,6 0,-6 0,0 0,6 0,-5 0,0 0,9 0,-12 0,6 0,-1 0,4 0,-4 0,9 0,-12 0,7 0,-3 0,2 0,-9 0,13 0,-16 0,13 0,-7 0,0 0,8 3,-11-2,6 3,4-4,-12 0,28 0,-33 0,23 0,-13 0,5 0,3 0,-2 0,-5 0,8 0,-11 0,15 0,-19 0,15 4,-5-3,-3 4,7-5,-7 0,18 0,-15 0,6 0,-11 0,-2 0,10 0,-6 0,3 0,-4 0,0 0,3 0,-2 0,7 0,-1 0,-5 0,7 0,-8 0,-1 0,6 0,-9 0,6 0,0 0,-2 0,2 0,0 0,-2 0,3 0,-4 0,7 0,-5 0,2 0,-2 0,-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-10T22:59:04.408"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.5" units="cm"/>
+      <inkml:brushProperty name="height" value="1" units="cm"/>
+      <inkml:brushProperty name="color" value="#A2D762"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'71'0,"-14"0,-28 0,19 0,-11 0,17 0,-23 0,12 0,-10 0,22 0,-28 4,26 3,-33-2,21 1,-23-2,11-3,2 2,-5-3,4 0,12 4,-20-3,26 2,-23 2,5-4,13 10,-9-10,20 6,-20-3,2-3,5 4,-21-5,21 5,-19-4,5 3,4-4,-5 0,2 0,-2 0,-1 0,7 4,-8-3,18 2,-21 1,20-3,-17 2,0-3,6 0,-5 4,0-3,15 2,-23-3,19 0,-12 0,8 0,-3 0,-3 0,-4 0,3 0,6 0,-6 0,5 0,-6 0,1 0,8 0,-15 0,12 0,-6 0,1 0,3 0,-4 0,3 0,-2 0,12 0,-14 0,13 0,-11 0,-4 0,12 0,-11 0,10 0,-4 0,6 0,-14 0,16 0,-18 0,9 0,-3 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-10T23:00:50.972"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.5" units="cm"/>
+      <inkml:brushProperty name="height" value="1" units="cm"/>
+      <inkml:brushProperty name="color" value="#A2D762"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 11,'66'0,"-5"-5,-43 4,11-4,-5 5,7 0,-7 0,6 0,-6 0,7 0,-1 0,1 0,0 0,-6 0,5 0,-9 4,6-3,11 2,-14-3,15 5,-14-4,-1 4,12-5,-16 0,9 0,1 0,-10 3,17-2,-13 3,8-4,-8 0,12 3,-16-2,9 3,6-4,-15 0,15 0,-5 4,-11-3,25 7,-18-2,2-2,7 1,-19-2,24 3,-22-1,18 4,1-2,-9-1,1 1,-3-4,-6-2,18 7,-17-7,15 4,-16-2,10-2,4 3,-7-4,16 4,-12-3,11 4,4-5,-1 5,-2-4,-12 3,11-4,-15 4,8-3,-13 2,0-3,8 0,-1 0,-1 0,-4 0,3 0,-2 0,3 0,0 0,-4 0,7 0,-8 0,7 0,-6 0,1 0,3 0,-1 0,-2 0,3 0,-4 0,3 0,-2 0,3-3,-1-2,-6 1,10 0,-6 4</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-10T23:11:11.291"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 92 24575,'8'0'0,"0"0"0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,3-3 0,-2 2 0,6-3 0,-6 4 0,3 0 0,-4 0 0,10 0 0,-3-4 0,4 4 0,-7-4 0,-4 4 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,3 0 0,-2 0 0,2 0 0,-3 0 0,0 0 0,0 0 0,10 0 0,-8 0 0,9 0 0,-12 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,4 0 0,7 0 0,5 0 0,0 0 0,17 0 0,-13 0 0,27 0 0,-21 0 0,10 0 0,-13 0 0,-7 0 0,-1 0 0,-7 0 0,0 0 0,-4 0 0,0 0 0,-5 0 0,1 0 0,22 0 0,-7 0 0,34 0 0,-23 0 0,22 0 0,-22 0 0,7 0 0,13 0 0,-27 0 0,18 0 0,-26 0 0,-1 0 0,5 0 0,-11 0 0,0-4 0,-1 3 0,-2-2 0,3 3 0,-2 0 0,-1 0 0,3 0 0,-4 0 0,0 0 0,10 0 0,-8 0 0,12 0 0,-9 0 0,9 0 0,-1 0 0,-1 0 0,6 0 0,-16 0 0,8 0 0,-6 0 0,4 0 0,-3 0 0,5 0 0,-9 0 0,2 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,0 0 0,10 0 0,17 0 0,-8 0 0,16 0 0,-19 0 0,7 0 0,-1 0 0,12 0 0,-8 0 0,8 0 0,-17 0 0,4 0 0,-12 0 0,6 0 0,-7 0 0,-3 0 0,-2 0 0,-3 0 0,-1 0 0,1 0 0,4 0 0,-3 0 0,12 0 0,12 0 0,-6 0 0,14 0 0,-17 0 0,19 0 0,-10 0 0,32 0 0,9 0 0,4 0 0,-8 0 0,-26 0 0,-19 0 0,-3 0 0,-6 0 0,-3 0 0,-2 0 0,1 0 0,7 0 0,-1 0 0,11 0 0,-11 0 0,22 0 0,10 0 0,-11 0 0,12 0 0,-18 0 0,12 0 0,1 0 0,2 0 0,-22 0 0,1 0 0,-12 0 0,4 0 0,-4 0 0,4 0 0,-11 0 0,-1 0 0,1 0 0,4-4 0,-3 3 0,3-2 0,-1 3 0,2 0 0,9 0 0,2-4 0,14 3 0,-11-2 0,3-1 0,-8 3 0,-8-3 0,15 4 0,-15 0 0,15 0 0,-5 0 0,-1 0 0,18 0 0,-24 0 0,23 0 0,-26 0 0,15 0 0,-11 0 0,5 0 0,-1 0 0,-4 0 0,5 0 0,-11 0 0,0 0 0,-5 0 0,4 0 0,-2 0 0,3 0 0,-4 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,3 0 0,2 0 0,3 0 0,-4 0 0,0 0 0,-1 0 0,2 0 0,-1 0 0,4 0 0,-7 0 0,2 0 0,4 0 0,-5 0 0,4 0 0,-6 0 0,4 0 0,-3 0 0,6 0 0,-3 0 0,11 0 0,-5 0 0,11 0 0,-5 0 0,19 0 0,-16 0 0,24 0 0,-30 0 0,27 0 0,-32 0 0,13 0 0,-20 0 0,3 0 0,-5 0 0,1 0 0,0 0 0,0 0 0,14 0 0,-7 0 0,30-6 0,4 4 0,0-4 0,5 6 0,0 0 0,-17 0 0,40 0 0,-40 0 0,29 0 0,-9 0 0,-9 0 0,6-5 0,-10 4 0,-16-3 0,8 0 0,-20 3 0,0-2 0,-3 3 0,2 0 0,-6 0 0,2 0 0,-3 0 0,10-5 0,3 4-6784,9-4 6784,-6 5 0,-1 0 0,11 0 0,-7 0 0,27 0 0,16 0 0,-30 0 6784,17 0-6784,-38 0 0,-1 0 0,1 0 0,-4 0 0,-3 0 0,4 0 0,-3 0 0,-2 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,0 0 0,8 0 0,-7 0 0,5 0 0,-2 0 0,1 0 0,3 0 0,0 0 0,6 0 0,-4 0 0,5 0 0,-1 0 0,3 0 0,-1 0 0,-2 0 0,1 0 0,-5 0 0,3 0 0,-5 0 0,1 0 0,-1 0 0,-4 0 0,0 0 0,-4 0 0,0 0 0,3 0 0,8 0 0,6 0 0,-1 0 0,5 0 0,7 0 0,-3 0 0,21 0 0,-20 0 0,20 0 0,5 5 0,-17-4 0,5 3 0,-12-4 0,-18 0 0,16 0 0,-14 0 0,-4 0 0,6 0 0,-12 0 0,6 0 0,-6 0 0,3 0 0,-4 0 0,0 0 0,0 0 0,3 0 0,-2 0 0,2 0 0,-3 0 0,0 0 0,0 0 0,7 0 0,-5 0 0,5 0 0,-4 0 0,-2 0 0,6 0 0,2 0 0,-4 0 0,2 0 0,-3 0 0,-3 0 0,6 0 0,-6 0 0,6 0 0,-6 0 0,2 0 0,1 0 0,0 4 0,1-3 0,-2 2 0,-3-3 0,0 0 0,0 0 0,0 0 0,7 0 0,-6 0 0,7 0 0,-8 0 0,0 0 0,0 0 0,3 0 0,-2 0 0,2 0 0,1 0 0,1 0 0,-1 0 0,0 0 0,-4 0 0,0 0 0,0 0 0,3 0 0,-2 0 0,3 0 0,-4 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,4 0 0,1 0 0,-1 0 0,3 0 0,4 0 0,5 0 0,1 0 0,-6 0 0,-8 0 0,-3 0 0,10 0 0,15 0 0,-1 0 0,60 0 0,-55 0 0,34 0 0,-48 0 0,12 0 0,-1 0 0,2 0 0,-17 0 0,-8 0 0,-3 0 0,-3 0 0,-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-10T23:14:04.046"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 64 24575,'8'0'0,"0"0"0,0 0 0,3 0 0,-2 0 0,3 0 0,-4 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,4 0 0,-3 0 0,2 0 0,1-4 0,-3 3 0,2-2 0,1 3 0,-3 0 0,2 0 0,1-4 0,-3 3 0,2-2 0,-3 3 0,0 0 0,0 0 0,4 0 0,0 0 0,12 0 0,-10 0 0,4 0 0,-7 0 0,-2 0 0,3 0 0,-4 0 0,0 0 0,3 0 0,-2 0 0,6-4 0,-6 3 0,6-2 0,-2 3 0,3 0 0,0 0 0,0 0 0,0 0 0,7 0 0,2 0 0,-5 0 0,2 0 0,-14 0 0,4 0 0,-4 0 0,0 0 0,0 0 0,0 3 0,11-2 0,-5 3 0,9-4 0,-10 0 0,2 0 0,-3 0 0,8 0 0,-7 0 0,2 0 0,-7 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,10 0 0,-7 0 0,10 0 0,-8 0 0,3 0 0,0 0 0,-3 0 0,2 0 0,-3 0 0,4 0 0,0 3 0,1-2 0,-1 3 0,-1-4 0,-3 0 0,0 0 0,-4 0 0,0 0 0,0 0 0,3 0 0,-2 0 0,3 0 0,-4 0 0,0 0 0,7 0 0,-5 0 0,8 0 0,-9 3 0,6-2 0,-6 3 0,3-4 0,-4 0 0,7 0 0,-2 0 0,7 0 0,-4 0 0,-8 3 0,20-2 0,-16 6 0,36-6 0,-27 2 0,31 4 0,-24-6 0,14 10 0,-12-10 0,-6 4 0,5-5 0,-11 0 0,4 0 0,-6 0 0,0 4 0,0-4 0,1 4 0,-5-4 0,0 0 0,-5 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,3 0 0,-2 0 0,12 0 0,-10 0 0,17 0 0,4 0 0,2 0 0,8 0 0,-11 0 0,22 0 0,-16 0 0,17 0 0,0 0 0,-24 0 0,23 0 0,-29 0 0,-1 0 0,10 0 0,-14 0 0,3 0 0,-10 0 0,-4 0 0,3 0 0,-2 0 0,13 0 0,-8 0 0,15 0 0,7 0 0,8 0 0,2 0 0,8-6 0,-1 4 0,-6-4 0,13 6 0,-36 0 0,6 0 0,-23 0 0,1 0 0,0 0 0,0 0 0,10 0 0,17-5 0,12 4 0,12-4 0,-18 5 0,-1 0 0,8 0 0,-11 0 0,17 0 0,-30 0 0,4 0 0,-10 0 0,5 0 0,-11 0 0,0 0 0,-4 0 0,0 0 0,21 0 0,7-6 0,3 4 0,26-4 0,-11 6 0,7-3 0,3-2 0,16-3 0,-24 3 0,-4 1 0,-6-3 0,-10 4 0,-14 2 0,-9-3 0,-2 4 0,-3 0 0,7-3 0,-2 2 0,13-3 0,-8 4 0,11 0 0,-5 0 0,0 0 0,5 0 0,-11 0 0,11 0 0,-15 0 0,4 0 0,-7 0 0,-2 0 0,6 0 0,4 0 0,-2 0 0,12 0 0,-11 0 0,23 0 0,-14 0 0,15 0 0,0 0 0,-8 0 0,2 0 0,-7 0 0,-11 0 0,2 0 0,-9 0 0,-3 0 0,4 0 0,30 0 0,-18 0 0,21 0 0,-15 0 0,8 0 0,2 0 0,-4 0 0,-7 0 0,-4 0 0,-1 0 0,4 0 0,-10 0 0,1 0 0,-8 0 0,1 0 0,-3 0 0,2 0 0,7 0 0,3 0 0,33 0 0,-6 0 0,9 0 0,9 0 0,6 0 0,2 0 0,6 0 0,-23 0 0,26 0 0,-31 0 0,8 0 0,-37 0 0,-7 0 0,-4 0 0,0 0 0,-4 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,3 0 0,36-3 0,-26 2 0,60-3 0,-61 0 0,48 4 0,-47-4 0,15 4 0,-13 0 0,-9 0 0,3 0 0,-9 0 0,10 0 0,-4 0 0,15 0 0,-15 0 0,14 0 0,-13 0 0,4 0 0,-4 0 0,4 0 0,-2 0 0,2 0 0,10 0 0,-18 0 0,18 0 0,-20 0 0,3 0 0,-4 0 0,0 0 0,0 0 0,0 0 0,0 0 0,3 0 0,-2 0 0,6 0 0,-2 0 0,-1 0 0,3 0 0,-2 0 0,-1 0 0,3 0 0,-2 0 0,9 0 0,-5 0 0,16 0 0,-15 0 0,8 0 0,-9-4 0,-1 3 0,0-2 0,3 3 0,-5 0 0,1 0 0,-7 0 0,3 0 0,-2 0 0,3 0 0,-4 0 0,3 0 0,8 0 0,5 0 0,0 0 0,5 0 0,30 0 0,-26 0 0,32 0 0,-30 0 0,-2 0 0,23 0 0,-28 0 0,8 0 0,-23 0 0,-2 0 0,-3 0 0,10 0 0,-4 0 0,5 0 0,2 0 0,0 0 0,9 0 0,1 0 0,11 0 0,-8 0 0,9 0 0,-19 0 0,-4 0 0,-8 0 0,-2 0 0,-1 0 0,3 0 0,6 0 0,-4 3 0,15-2 0,-11 3 0,11-4 0,-5 0 0,6 0 0,-5 0 0,-6 0 0,2 0 0,-11 0 0,8 0 0,0 0 0,-8 0 0,8 0 0,-10 0 0,0 0 0,4 0 0,19 0 0,-11 0 0,21 0 0,-5 0 0,9 0 0,25 0 0,-9 0 0,-2 0 0,-16 0 0,-2 0 0,-7 0 0,2 0 0,-17 0 0,-11 0 0,-5 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-10T23:15:21.305"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 63 24575,'8'0'0,"0"0"0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,10 0 0,-3 0 0,2 0 0,-1 0 0,3 0 0,-5 0 0,4 0 0,7 0 0,-9 0 0,10 0 0,-4 0 0,-8 0 0,5 0 0,-4 0 0,-3 0 0,3 0 0,1 0 0,1 0 0,-1 0 0,0 3 0,-4-2 0,3 3 0,-2-4 0,3 0 0,-4 0 0,11 0 0,-13 0 0,13 0 0,-14 3 0,6-2 0,-7 3 0,7-4 0,4 0 0,-5 0 0,8 0 0,-3 0 0,-1 0 0,5 0 0,-7 0 0,0 0 0,-3 0 0,2 0 0,-2 0 0,2 0 0,1 0 0,3 0 0,-2 0 0,3 0 0,-4 0 0,-3 0 0,2 0 0,-6 0 0,12 0 0,-3 0 0,5 0 0,-7 0 0,5 0 0,-11 0 0,12 0 0,-9 0 0,3 3 0,13-2 0,-13 3 0,13-4 0,-10 0 0,-1 0 0,1 3 0,-8-2 0,7 3 0,-8-4 0,11 0 0,-2 0 0,-1 0 0,30 0 0,-25 0 0,18 0 0,-28 0 0,8 0 0,-8 0 0,10 0 0,-7 0 0,7 0 0,-5 0 0,12 0 0,-16 0 0,7 0 0,-2 0 0,-1 0 0,23 0 0,-14 0 0,15 0 0,-20 0 0,-1 0 0,-8 0 0,3 0 0,0 0 0,0 0 0,0 0 0,0 0 0,6 0 0,-4 0 0,2 0 0,-5 0 0,-2 0 0,-1 0 0,3 0 0,-2 0 0,3 0 0,-4 0 0,3 0 0,-6 0 0,6 0 0,-2 0 0,3 0 0,-4 0 0,-1 0 0,-3 0 0,17 0 0,-13 0 0,14 0 0,-15 0 0,-2 0 0,6 0 0,-2 0 0,-1 0 0,0 0 0,6 0 0,-8 0 0,12 0 0,-10 0 0,4 0 0,6 0 0,-4 0 0,4 0 0,1 0 0,-5 0 0,11 0 0,-11 0 0,5 0 0,-7 0 0,1 0 0,-5 0 0,9 0 0,-7 0 0,8-4 0,-6 3 0,14-2 0,-10 3 0,6-4 0,-11 3 0,4-3 0,-5 4 0,8 0 0,-4 0 0,3-3 0,9 2 0,-13-3 0,5 4 0,-13 0 0,13-4 0,-8 3 0,5-4 0,6 5 0,-4 0 0,6 0 0,-8 0 0,-7-4 0,-1 3 0,2-2 0,3 3 0,0 0 0,0 0 0,3 0 0,-5 0 0,5 0 0,-11 0 0,8 0 0,-8 0 0,4 0 0,-4 0 0,-1 0 0,1 0 0,0 0 0,0-4 0,0 3 0,0-2 0,0 3 0,0 0 0,0 0 0,0 0 0,3 0 0,2 0 0,3 0 0,0-4 0,0 3 0,0-2 0,0 3 0,22 0 0,-21 0 0,20-4 0,-25 3 0,5-3 0,-1 4 0,-4 0 0,3 0 0,-6 0 0,3 0 0,-1 0 0,-2 0 0,3 0 0,-1 0 0,-2 0 0,3 0 0,-1 0 0,-2 0 0,9 0 0,-8 0 0,8 0 0,-9 0 0,6 0 0,-2 0 0,9 0 0,-4 0 0,11 0 0,-5 0 0,14 0 0,-6 0 0,-1 0 0,-9 0 0,-5 0 0,5 0 0,3 0 0,6 0 0,-6 0 0,-3 0 0,0 0 0,-5 0 0,24 0 0,-20 0 0,13 0 0,-18 0 0,-3 0 0,2 0 0,-6-3 0,6 2 0,-6-3 0,6 4 0,-3 0 0,0 0 0,0 0 0,-4 0 0,0 0 0,0-3 0,3 2 0,8-3 0,-5 4 0,8 0 0,-13 0 0,2 0 0,-3 0 0,0 0 0,11 0 0,-5 0 0,9 0 0,-11 0 0,-1 0 0,1 0 0,1 0 0,3 0 0,6 0 0,-4 0 0,11-4 0,7 2 0,5-2 0,2 4 0,-5 0 0,-14 0 0,5 0 0,-5 0 0,14 0 0,-6 0 0,5 0 0,-16 0 0,7 0 0,-14 0 0,5 0 0,-4 0 0,1 0 0,-3 0 0,3 0 0,-8 0 0,-1 0 0,1 0 0,4 0 0,-3 0 0,2 0 0,-3 0 0,-1 0 0,1 0 0,0 0 0,4 0 0,-3 0 0,2 0 0,1 0 0,0 0 0,1 0 0,2 0 0,-3 0 0,5 0 0,-1 0 0,0 3 0,0-2 0,0 3 0,-4-4 0,3 0 0,-3 0 0,4 0 0,0 0 0,4 0 0,-7 0 0,2 0 0,-7 0 0,0 0 0,0 0 0,-3 3 0,2-2 0,1 3 0,1-4 0,2 0 0,-3 0 0,4 3 0,-4-2 0,4 3 0,-4-4 0,0 0 0,3 0 0,5 3 0,1-2 0,-1 3 0,-1-4 0,4 0 0,5 0 0,0 0 0,5 0 0,21 0 0,-21 0 0,26 0 0,-8 0 0,-10 0 0,17 0 0,-12 0 0,-9 0 0,23 0 0,-10 0 0,-5 0 0,-8 0 0,-17 0 0,-3 0 0,-2 0 0,1 0 0,0 0 0,1 0 0,-2 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,4 0 0,-3 0 0,6 0 0,-3 0 0,4 0 0,-3 0 0,1 0 0,-1 0 0,-1 0 0,3 0 0,-2 0 0,6 0 0,-2 0 0,3 0 0,-4 0 0,-3 0 0,2 0 0,-3 0 0,4 0 0,4 0 0,-3 0 0,-2 0 0,7 0 0,-8 0 0,15 0 0,-12 0 0,2 0 0,-7 0 0,-4 0 0,7 0 0,-2 0 0,3 0 0,-4 0 0,0 0 0,-4 0 0,4 0 0,-5 0 0,5 0 0,-4 0 0,4 0 0,-4 0 0,4 0 0,-4 0 0,4 0 0,-4 0 0,0 0 0,0 0 0,3 0 0,2 0 0,3 0 0,0 0 0,-4 0 0,4 0 0,-4 0 0,4 0 0,-1 0 0,-2 0 0,-2 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,3 0 0,-2 0 0,3 0 0,-1 0 0,-2 0 0,6 0 0,-6 0 0,3 0 0,-5 0 0,1 0 0,0 0 0,0 0 0,3 0 0,-2 0 0,3 0 0,-4 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 3 0,0-2 0,0 3 0,0-4 0,0 0 0,0 0 0,0 0 0,0 0 0,9 0 0,-6 0 0,7 0 0,-10 0 0,0 0 0,0 0 0,3 0 0,-2 0 0,3 0 0,-4 0 0,-4 3 0,0-2 0,-4 3 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-10T23:24:08.691"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.5" units="cm"/>
+      <inkml:brushProperty name="height" value="1" units="cm"/>
+      <inkml:brushProperty name="color" value="#51BED9"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 73,'66'-11,"-13"5,-23 0,-15 1,21 4,2-4,3-1,13 4,-11-5,0 7,17 0,-12 0,45 0,-8-10,-35 8,1 1,6-4,0 0,-5 4,-2 2,35-1,-22 0,0 0,26 0,-29 0,-1 0,21 0,-3 0,-13 0,1 5,-19-4,-15 4,-18-5,19 0,-2 0,0 0,2 5,-15-4,25 4,-5 2,7-6,-3 6,-16-7,16 6,-21-4,15 4,-16-6,9 0,5 0,-13 5,16-4,-17 4,9-5,4 5,3-3,0 8,-3-9,-1 4,-6-5,7 5,-9-4,0 4,4-5,-3 0,13 0,-17 0,11 0,-4 0,-3 0,8 0,-4 0,-4 0,51 0,-46 0,40 0,-56 0,17 0,0 0,14 0,-9 0,-8 0,-11 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-10T23:24:10.739"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.5" units="cm"/>
+      <inkml:brushProperty name="height" value="1" units="cm"/>
+      <inkml:brushProperty name="color" value="#51BED9"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 64,'67'-5,"-9"4,-41-5,0 6,19-5,-13 4,20-4,-11-1,-7 4,6-5,-8 7,9 0,-7 0,7 0,-9 0,9 0,-6 0,16 0,-17 0,6 0,1 0,-7 0,7 0,0 0,-7 0,7 0,-9 0,18 0,-13 0,9 0,-7 0,-15 0,26 0,-21 0,8 0,2 0,33 0,-26 0,27 0,-37-6,7 4,9-4,-9 6,-2 0,0 0,-7-5,7 4,-4-5,1 6,-6 0,9 0,-8 0,5 0,-2 0,-4 0,5 0,5 0,-3 0,2 0,-10 0,10 0,-7 0,16 0,-16 5,7-3,0 9,2-9,0 4,-2-6,-14 5,13-4,-6 4,9-5,8 7,10-6,-14 6,10-7,-22 0,9 0,-1 0,-2 0,-1 0,3 0,1 0,22 0,-28 0,46 9,-46-7,29 7,-24-9,28 0,-23 0,7 0,-24 0,-5 0,16 0,-3-5,-1 4,-3-5,-8 6</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1605,412 +2790,842 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" customWidth="1"/>
-    <col min="3" max="3" width="34.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" customWidth="1"/>
-    <col min="6" max="6" width="4.36328125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="10" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="4.33203125" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" customWidth="1"/>
+    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:24" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+    </row>
+    <row r="4" spans="1:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="45"/>
+      <c r="G4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="11"/>
+      <c r="N4" s="22"/>
+      <c r="X4" s="12"/>
+    </row>
+    <row r="5" spans="1:24" ht="38" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="44"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="G5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="H5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11"/>
+      <c r="P5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="X5" s="12"/>
+    </row>
+    <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="44"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="15"/>
+    </row>
+    <row r="7" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="44"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="X7" s="12"/>
+    </row>
+    <row r="8" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="44"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="11"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="44"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="G9" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
-        <v>1</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
-        <v>2</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
-        <v>3</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
-        <v>4</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
-        <v>5</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="G9" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="H9" s="1">
         <f>COUNTIF($C$5:$C$29,"&lt;&gt;")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
-        <v>6</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="G10" s="13" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="20"/>
+      <c r="X9" s="12"/>
+    </row>
+    <row r="10" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="44"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H10" s="1">
         <f>COUNTIFS($D$5:$D$29,$H$5,$E$5:$E$29,$G$5)*$I$5+COUNTIFS($D$5:$D$29,$H$6,$E$5:$E$29,$G$5)*$I$6+COUNTIFS($D$5:$D$29,$H$7,$E$5:$E$29,$G$5)*$I$7</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="X10" s="12"/>
+    </row>
+    <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="44"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="G11" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
-        <v>7</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="G11" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="H11" s="1">
         <f>COUNTIF($D$5:$D$29,$H$5)*$I$5+COUNTIF($D$5:$D$29,$H$6)*$I$6+COUNTIF($D$5:$D$29,$H$7)*$I$7</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
-        <v>8</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="G12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="15"/>
+    </row>
+    <row r="12" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="44"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="7">
         <f>IFERROR(H10/H11,0)</f>
-        <v>0.7857142857142857</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
-        <v>9</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
-        <v>10</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
-        <v>11</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="10"/>
+    </row>
+    <row r="13" spans="1:24" ht="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="44"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="17"/>
+      <c r="M13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="11"/>
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="12"/>
+      <c r="T14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="12"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:24" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="44"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="15"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A16" s="44"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="11"/>
+      <c r="X16" s="12"/>
+    </row>
+    <row r="17" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="O17" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" s="12"/>
+      <c r="T17" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="U17" s="12"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="39">
+        <v>44642</v>
+      </c>
+      <c r="X17" s="12"/>
+    </row>
+    <row r="18" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="44"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="G18" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22">
-        <v>13</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
-        <v>14</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="G18" s="13" t="s">
-        <v>17</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22">
-        <v>15</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
+      <c r="J18" s="12"/>
+      <c r="K18" s="17"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="29"/>
+      <c r="R18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="11"/>
+      <c r="X18" s="12"/>
+    </row>
+    <row r="19" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="44"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H19" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22">
-        <v>16</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="G20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="14">
+      <c r="J19" s="12"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="15"/>
+    </row>
+    <row r="20" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="G20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22">
-        <v>17</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
-        <v>18</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22">
-        <v>19</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22">
-        <v>20</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22">
+      <c r="J20" s="12"/>
+      <c r="K20" s="17"/>
+      <c r="M20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="11"/>
+      <c r="X20" s="12"/>
+    </row>
+    <row r="21" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22">
+      <c r="M21" s="12"/>
+      <c r="O21" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="12"/>
+      <c r="T21" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21" s="12"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="39">
+        <v>44643</v>
+      </c>
+      <c r="X21" s="12"/>
+    </row>
+    <row r="22" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="44"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="K22" s="17"/>
+      <c r="M22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="11"/>
+      <c r="X22" s="12"/>
+    </row>
+    <row r="23" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="44"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="15"/>
+    </row>
+    <row r="24" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="44"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="K24" s="17"/>
+      <c r="M24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="11"/>
+      <c r="X24" s="12"/>
+    </row>
+    <row r="25" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="44"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="K25" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="O25" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="12"/>
+      <c r="T25" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="U25" s="12"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="39">
+        <v>44643</v>
+      </c>
+      <c r="X25" s="12"/>
+    </row>
+    <row r="26" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="44"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="K26" s="17"/>
+      <c r="M26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="11"/>
+      <c r="X26" s="12"/>
+    </row>
+    <row r="27" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="44"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="15"/>
+    </row>
+    <row r="28" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="44"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="K28" s="17"/>
+      <c r="M28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="11"/>
+      <c r="X28" s="12"/>
+    </row>
+    <row r="29" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="44"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="17"/>
+      <c r="M29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="11"/>
+      <c r="X29" s="12"/>
+    </row>
+    <row r="30" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22">
+      <c r="M30" s="12"/>
+      <c r="O30" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="R30" s="12"/>
+      <c r="T30" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22">
-        <v>24</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22">
-        <v>25</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="39">
+        <v>44643</v>
+      </c>
+      <c r="X30" s="12"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="C31" s="31"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="15"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="K32" s="17"/>
+      <c r="M32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="11"/>
+      <c r="X32" s="12"/>
+    </row>
+    <row r="33" spans="4:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="D33" s="28"/>
+      <c r="K33" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="11"/>
+      <c r="X33" s="12"/>
+    </row>
+    <row r="34" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="K34" s="17"/>
+      <c r="M34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="11"/>
+      <c r="X34" s="12"/>
+    </row>
+    <row r="35" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="K35" s="18"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="15"/>
+    </row>
+    <row r="36" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="K36" s="17"/>
+      <c r="M36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="11"/>
+      <c r="X36" s="12"/>
+    </row>
+    <row r="37" spans="4:24" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K37" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="11"/>
+      <c r="X37" s="12"/>
+    </row>
+    <row r="38" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="K38" s="17"/>
+      <c r="M38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="11"/>
+      <c r="X38" s="12"/>
+    </row>
+    <row r="39" spans="4:24" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D39" s="26"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="15"/>
+    </row>
+    <row r="40" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="K40" s="17"/>
+      <c r="M40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="11"/>
+      <c r="X40" s="12"/>
+    </row>
+    <row r="41" spans="4:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K41" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="11"/>
+      <c r="X41" s="12"/>
+    </row>
+    <row r="42" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="K42" s="17"/>
+      <c r="M42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="11"/>
+      <c r="X42" s="12"/>
+    </row>
+    <row r="43" spans="4:24" ht="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K43" s="18"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="15"/>
+    </row>
+    <row r="44" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="K44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="X44" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="A5:E29">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>AND($E5=$G$5,$C5&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C5:C29">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$E5="Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E29">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($E5=$G$5,$C5&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND($E18=$G$5,$C18&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$E18="Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>AND($E30=$G$5,$C30&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E29" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E29 D33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$G$5:$G$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D29" xr:uid="{00000000-0002-0000-0000-000001000000}">
